--- a/media/Product Savings Calculator v1.0.xlsx
+++ b/media/Product Savings Calculator v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file01\Sales_Supervisor\Product Savings Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\sys\htdocs\sales-calc\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,7 +189,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +464,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,29 +506,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -525,16 +549,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -549,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B13:G27" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B13:G27" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="B13:G27"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
@@ -828,11 +842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -845,13 +859,13 @@
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="35" t="s">
+    <row r="1" spans="2:7" ht="8.25" customHeight="1">
+      <c r="G1" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:7" ht="33.75">
+      <c r="B2" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="7"/>
@@ -860,7 +874,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="8.25" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -868,7 +882,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -880,7 +894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -888,85 +902,85 @@
       <c r="F5" s="3"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+    <row r="7" spans="2:7">
+      <c r="B7" s="28">
         <f>G9</f>
-        <v>11375.1</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+        <v>11960.1</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="3"/>
       <c r="F7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <f>SUM($E$14:$E$23)</f>
-        <v>21131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+        <v>21781</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="3"/>
       <c r="F8" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="2">
         <f>SUM($G$14:$G$23)</f>
-        <v>12639</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+        <v>13289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="20">
         <f>G8-(G8*G4)</f>
-        <v>11375.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+        <v>11960.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="20">
         <f>G7-G9</f>
-        <v>9755.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+        <v>9820.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="3"/>
       <c r="F11" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="21">
         <f>G10/G9</f>
-        <v>0.85765399864616565</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.82113861924231402</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -974,247 +988,247 @@
       <c r="F12" s="3"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="23">
         <v>2</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="27">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C14, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v>8594</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="27">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C14, ref!$A:$A, 0)),"")</f>
         <v>2799</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="27">
         <f>IFERROR(D14*F14,"")</f>
         <v>5598</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="23">
         <v>2</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="27">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C15, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v>8494</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="27">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C15, ref!$A:$A, 0)),"")</f>
         <v>1499</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="27">
         <f t="shared" ref="G15:G23" si="0">IFERROR(D15*F15,"")</f>
         <v>2998</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="27">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C16, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v>999</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="27">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C16, ref!$A:$A, 0)),"")</f>
         <v>999</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="27">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C17, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v>2394</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="27">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C17, ref!$A:$A, 0)),"")</f>
         <v>2394</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>2394</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32">
-        <v>1</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C18, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
-        <v>650</v>
-      </c>
-      <c r="F18" s="37">
+        <v>1300</v>
+      </c>
+      <c r="F18" s="27">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C18, ref!$A:$A, 0)),"")</f>
         <v>650</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="27">
         <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="32">
+      <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="37" t="str">
+      <c r="E19" s="27" t="str">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C19, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v/>
       </c>
-      <c r="F19" s="37" t="str">
+      <c r="F19" s="27" t="str">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C19, ref!$A:$A, 0)),"")</f>
         <v/>
       </c>
-      <c r="G19" s="37" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="32">
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="37" t="str">
+      <c r="E20" s="27" t="str">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C20, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v/>
       </c>
-      <c r="F20" s="37" t="str">
+      <c r="F20" s="27" t="str">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C20, ref!$A:$A, 0)),"")</f>
         <v/>
       </c>
-      <c r="G20" s="37" t="str">
+      <c r="G20" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="32">
+      <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="37" t="str">
+      <c r="E21" s="27" t="str">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C21, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v/>
       </c>
-      <c r="F21" s="37" t="str">
+      <c r="F21" s="27" t="str">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C21, ref!$A:$A, 0)),"")</f>
         <v/>
       </c>
-      <c r="G21" s="37" t="str">
+      <c r="G21" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="32">
+      <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="37" t="str">
+      <c r="E22" s="27" t="str">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C22, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v/>
       </c>
-      <c r="F22" s="37" t="str">
+      <c r="F22" s="27" t="str">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C22, ref!$A:$A, 0)),"")</f>
         <v/>
       </c>
-      <c r="G22" s="37" t="str">
+      <c r="G22" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="32">
+      <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="37" t="str">
+      <c r="E23" s="27" t="str">
         <f>IFERROR(IFERROR(INDEX(ref!$B:$B, MATCH(Calculator!$C23, ref!$A:$A, 0)),"")*Table1[[#This Row],[Quantity]],"")</f>
         <v/>
       </c>
-      <c r="F23" s="37" t="str">
+      <c r="F23" s="27" t="str">
         <f>IFERROR(INDEX(ref!$C:$C, MATCH(Calculator!$C23, ref!$A:$A, 0)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="37" t="str">
+      <c r="G23" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1222,7 +1236,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1230,7 +1244,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1238,7 +1252,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1246,7 +1260,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1254,9 +1268,9 @@
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7"/>
+    <row r="30" spans="2:7"/>
+    <row r="31" spans="2:7"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B7:D11"/>
@@ -1269,7 +1283,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ref!$A:$A</xm:f>
@@ -1290,14 +1304,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
@@ -1305,7 +1319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1321,7 +1335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1345,16 +1359,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2"/>
+    <row r="8" spans="1:2"/>
+    <row r="9" spans="1:2"/>
+    <row r="10" spans="1:2"/>
+    <row r="11" spans="1:2"/>
+    <row r="12" spans="1:2"/>
+    <row r="13" spans="1:2"/>
+    <row r="14" spans="1:2"/>
+    <row r="15" spans="1:2"/>
+    <row r="16" spans="1:2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1365,15 +1379,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1384,117 +1398,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="38">
         <v>4247</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="38">
         <v>1499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="38">
         <v>650</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="38">
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="38">
         <v>650</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="38">
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="38">
         <v>650</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="38">
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="38">
         <v>1197</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="38">
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="38">
         <v>4297</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="38">
         <v>2799</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="38">
         <v>1299</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="38">
         <v>1299</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="38">
         <v>1299</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="38">
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="38">
         <v>1699</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="38">
         <v>1699</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="38">
         <v>1750</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="38">
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1505,30 +1519,30 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="38">
         <v>1100</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="38">
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="38">
         <v>999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="38">
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -1538,8 +1552,8 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B16">
@@ -1549,8 +1563,8 @@
         <v>7194</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -1560,8 +1574,8 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1571,8 +1585,8 @@
         <v>9899</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -1582,8 +1596,8 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -1593,8 +1607,8 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B21">

--- a/media/Product Savings Calculator v1.0.xlsx
+++ b/media/Product Savings Calculator v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -479,6 +479,8 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,8 +511,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -903,22 +903,22 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="28">
+      <c r="B7" s="30">
         <f>G9</f>
         <v>11960.1</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="3"/>
       <c r="F7" s="18" t="s">
         <v>2</v>
@@ -929,9 +929,9 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3"/>
       <c r="F8" s="18" t="s">
         <v>38</v>
@@ -942,9 +942,9 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="3"/>
       <c r="F9" s="19" t="s">
         <v>39</v>
@@ -955,9 +955,9 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="3"/>
       <c r="F10" s="19" t="s">
         <v>36</v>
@@ -968,9 +968,9 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="22" t="s">
         <v>37</v>
@@ -1300,13 +1300,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -1399,112 +1399,112 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="28">
         <v>4247</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="28">
         <v>1499</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="28">
         <v>650</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="28">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="28">
         <v>650</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="28">
         <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="28">
         <v>650</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="28">
         <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="28">
         <v>1197</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="28">
         <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="28">
         <v>4297</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="28">
         <v>2799</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="28">
         <v>1299</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="28">
         <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="28">
         <v>1299</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="28">
         <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="28">
         <v>1699</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="28">
         <v>1699</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="28">
         <v>1750</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="28">
         <v>499</v>
       </c>
     </row>
@@ -1520,29 +1520,29 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="28">
         <v>1100</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="28">
         <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="28">
         <v>999</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="28">
         <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B16">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -1575,7 +1575,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B21">
